--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Hydroxid(-OH)" sheetId="5" r:id="rId4"/>
     <sheet name="（-NOx)" sheetId="9" r:id="rId5"/>
     <sheet name="Alloy" sheetId="7" r:id="rId6"/>
-    <sheet name="Phenomenon" sheetId="6" r:id="rId7"/>
+    <sheet name="Special" sheetId="6" r:id="rId7"/>
     <sheet name="NeedEdit" sheetId="8" r:id="rId8"/>
     <sheet name="Others" sheetId="2" r:id="rId9"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="392">
   <si>
     <t>Structural</t>
   </si>
@@ -381,150 +381,153 @@
     <t>锌</t>
   </si>
   <si>
+    <t>亜鉛</t>
+  </si>
+  <si>
+    <t>Ga</t>
+  </si>
+  <si>
+    <t>镓</t>
+  </si>
+  <si>
+    <t>ガリウム</t>
+  </si>
+  <si>
+    <t>Ge</t>
+  </si>
+  <si>
+    <t>锗</t>
+  </si>
+  <si>
+    <t>ゲルマニウム</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>砷</t>
+  </si>
+  <si>
+    <t>ヒ素</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>硒</t>
+  </si>
+  <si>
+    <t>Br2</t>
+  </si>
+  <si>
+    <t>溴</t>
+  </si>
+  <si>
+    <t>Kr</t>
+  </si>
+  <si>
+    <t>氪</t>
+  </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
+    <t>铷</t>
+  </si>
+  <si>
+    <t>Sr</t>
+  </si>
+  <si>
+    <t>锶</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>钇</t>
+  </si>
+  <si>
+    <t>イットリウム</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>锆</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>铌</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>钼</t>
+  </si>
+  <si>
+    <t>Tc</t>
+  </si>
+  <si>
+    <t>碍</t>
+  </si>
+  <si>
+    <t>テクネチウム</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>钌</t>
+  </si>
+  <si>
+    <t>Rh</t>
+  </si>
+  <si>
+    <t>铑</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>钯</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>银</t>
+  </si>
+  <si>
+    <t>銀</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>镉</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>铟</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>锡</t>
+  </si>
+  <si>
     <t>鈴</t>
   </si>
   <si>
-    <t>Ga</t>
-  </si>
-  <si>
-    <t>镓</t>
-  </si>
-  <si>
-    <t>ガリウム</t>
-  </si>
-  <si>
-    <t>Ge</t>
-  </si>
-  <si>
-    <t>锗</t>
-  </si>
-  <si>
-    <t>ゲルマニウム</t>
-  </si>
-  <si>
-    <t>As</t>
-  </si>
-  <si>
-    <t>砷</t>
-  </si>
-  <si>
-    <t>ヒ素</t>
-  </si>
-  <si>
-    <t>Se</t>
-  </si>
-  <si>
-    <t>硒</t>
-  </si>
-  <si>
-    <t>Br2</t>
-  </si>
-  <si>
-    <t>溴</t>
-  </si>
-  <si>
-    <t>Kr</t>
-  </si>
-  <si>
-    <t>氪</t>
-  </si>
-  <si>
-    <t>Rb</t>
-  </si>
-  <si>
-    <t>铷</t>
-  </si>
-  <si>
-    <t>Sr</t>
-  </si>
-  <si>
-    <t>锶</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>钇</t>
-  </si>
-  <si>
-    <t>イットリウム</t>
-  </si>
-  <si>
-    <t>Zr</t>
-  </si>
-  <si>
-    <t>锆</t>
-  </si>
-  <si>
-    <t>Nb</t>
-  </si>
-  <si>
-    <t>铌</t>
-  </si>
-  <si>
-    <t>Mo</t>
-  </si>
-  <si>
-    <t>钼</t>
-  </si>
-  <si>
-    <t>Tc</t>
-  </si>
-  <si>
-    <t>碍</t>
-  </si>
-  <si>
-    <t>テクネチウム</t>
-  </si>
-  <si>
-    <t>Ru</t>
-  </si>
-  <si>
-    <t>钌</t>
-  </si>
-  <si>
-    <t>Rh</t>
-  </si>
-  <si>
-    <t>铑</t>
-  </si>
-  <si>
-    <t>Pd</t>
-  </si>
-  <si>
-    <t>钯</t>
-  </si>
-  <si>
-    <t>Ag</t>
-  </si>
-  <si>
-    <t>银</t>
-  </si>
-  <si>
-    <t>銀</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Cd</t>
-  </si>
-  <si>
-    <t>镉</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>铟</t>
-  </si>
-  <si>
-    <t>Sn</t>
-  </si>
-  <si>
-    <t>锡</t>
-  </si>
-  <si>
     <t>Sb</t>
   </si>
   <si>
@@ -958,6 +961,12 @@
   </si>
   <si>
     <t>ファイアフェアリー</t>
+  </si>
+  <si>
+    <t>OilComposition</t>
+  </si>
+  <si>
+    <t>油混合物</t>
   </si>
   <si>
     <t>Li2O</t>
@@ -1196,9 +1205,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1224,8 +1233,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,6 +1255,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1247,7 +1281,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1255,6 +1296,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,14 +1324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1292,8 +1332,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1307,62 +1370,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1377,19 +1386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,7 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,7 +1428,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1464,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,25 +1536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,43 +1548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,43 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,6 +1577,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1601,6 +1645,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1619,50 +1672,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1676,145 +1685,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2178,8 +2187,8 @@
   <sheetPr/>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2242,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -2288,7 +2297,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -2445,7 +2454,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -2754,10 +2763,10 @@
         <v>99</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1">
         <v>100</v>
@@ -2786,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1">
         <v>100</v>
@@ -2806,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1">
         <v>100</v>
@@ -2823,10 +2832,10 @@
         <v>111</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30" s="1">
         <v>100</v>
@@ -2852,10 +2861,10 @@
         <v>117</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1">
         <v>100</v>
@@ -3187,12 +3196,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1">
         <v>6</v>
@@ -3203,10 +3212,13 @@
       <c r="G51" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="H51" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -3218,54 +3230,54 @@
         <v>100</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
@@ -3277,12 +3289,12 @@
         <v>100</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -3294,12 +3306,12 @@
         <v>100</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3311,12 +3323,12 @@
         <v>100</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -3328,12 +3340,12 @@
         <v>100</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -3345,12 +3357,12 @@
         <v>100</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -3362,15 +3374,15 @@
         <v>100</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -3382,12 +3394,12 @@
         <v>100</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3399,15 +3411,15 @@
         <v>100</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -3419,15 +3431,15 @@
         <v>100</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -3439,18 +3451,18 @@
         <v>100</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -3462,18 +3474,18 @@
         <v>100</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -3485,15 +3497,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -3505,12 +3517,12 @@
         <v>100</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -3522,15 +3534,15 @@
         <v>100</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -3542,15 +3554,15 @@
         <v>100</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -3562,29 +3574,29 @@
         <v>100</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3612,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4"/>
@@ -3653,46 +3665,46 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3707,8 +3719,8 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12"/>
@@ -3765,44 +3777,44 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -3814,15 +3826,15 @@
         <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -3831,21 +3843,21 @@
         <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -3854,24 +3866,24 @@
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -3880,24 +3892,24 @@
         <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -3908,7 +3920,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -3922,49 +3934,49 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -3973,51 +3985,51 @@
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4096,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -4096,24 +4108,24 @@
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -4190,46 +4202,46 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4245,7 +4257,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -4297,16 +4309,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4315,27 +4327,27 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -4344,27 +4356,27 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -4373,27 +4385,27 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -4402,27 +4414,27 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -4431,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4450,13 +4462,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="8.44444444444444" style="1" customWidth="1"/>
@@ -4505,10 +4517,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4520,13 +4532,39 @@
         <v>9999</v>
       </c>
       <c r="G2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" t="s">
         <v>310</v>
       </c>
-      <c r="H2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I2" t="s">
-        <v>308</v>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H3" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4591,327 +4629,327 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B29" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B31" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4975,34 +5013,34 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -1205,9 +1205,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1233,9 +1233,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1248,8 +1261,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,23 +1286,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,20 +1305,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1316,17 +1323,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1341,30 +1363,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,19 +1386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,13 +1440,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,103 +1482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,13 +1500,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,30 +1577,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1631,6 +1607,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1649,21 +1640,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1685,10 +1685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1697,10 +1697,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1709,121 +1709,121 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2187,8 +2187,8 @@
   <sheetPr/>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2589,7 +2589,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -3612,7 +3612,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="4"/>
@@ -4465,7 +4465,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -4579,8 +4579,8 @@
   <sheetPr/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4773,9 +4773,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>345</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">

--- a/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/Substance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PureElement" sheetId="1" r:id="rId1"/>
@@ -1205,8 +1205,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1234,14 +1234,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1255,7 +1256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1270,7 +1271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1286,9 +1287,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1300,11 +1301,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1347,21 +1355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1376,6 +1369,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1386,7 +1386,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,19 +1452,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,151 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,17 +1577,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1602,6 +1591,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1685,10 +1685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1697,16 +1697,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1718,112 +1718,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2187,7 +2187,7 @@
   <sheetPr/>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -4579,8 +4579,8 @@
   <sheetPr/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4773,12 +4773,18 @@
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>345</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4822,9 +4828,18 @@
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>355</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:1">
